--- a/ImpactJDV-J264/ig/StructureDefinition-esms-consent.xlsx
+++ b/ImpactJDV-J264/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T13:13:29+00:00</t>
+    <t>2024-07-02T13:49:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ImpactJDV-J264/ig/StructureDefinition-esms-consent.xlsx
+++ b/ImpactJDV-J264/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T13:49:32+00:00</t>
+    <t>2024-07-02T14:02:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
